--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>MEGL</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Symbol</t>
+  </si>
+  <si>
+    <t>mmm</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
@@ -457,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>45119</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>45119</v>
+        <v>45142</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +476,15 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>45119</v>
+        <v>45142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>45142</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -16,30 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>MEGL</t>
-  </si>
-  <si>
-    <t>AGBA</t>
-  </si>
-  <si>
-    <t>SIEB</t>
-  </si>
-  <si>
-    <t>TPST</t>
-  </si>
-  <si>
-    <t>GSUN</t>
-  </si>
-  <si>
-    <t>HUDI</t>
-  </si>
-  <si>
-    <t>WLGS</t>
-  </si>
-  <si>
-    <t>TCJH</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -47,6 +23,30 @@
   </si>
   <si>
     <t>mmm</t>
+  </si>
+  <si>
+    <t>CRKN</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>TSLA</t>
+  </si>
+  <si>
+    <t>INTC</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>LCID</t>
+  </si>
+  <si>
+    <t>NVDA</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,50 +409,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>45119</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>45109</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>45119</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>45041</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>45119</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,31 +460,31 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>45142</v>
+        <v>45155</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>45142</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>45142</v>
+        <v>45156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>45142</v>
+        <v>45156</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
@@ -22,28 +22,10 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>mmm</t>
-  </si>
-  <si>
-    <t>CRKN</t>
-  </si>
-  <si>
     <t>AAPL</t>
   </si>
   <si>
-    <t>TSLA</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
     <t>GOOGL</t>
-  </si>
-  <si>
-    <t>META</t>
-  </si>
-  <si>
-    <t>LCID</t>
   </si>
   <si>
     <t>NVDA</t>
@@ -395,16 +377,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -417,74 +399,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>45154</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45154</v>
+        <v>45244</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45156</v>
+        <v>45244</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12225" windowHeight="6225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -22,20 +22,26 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>NVDA</t>
+    <t>GXAI</t>
+  </si>
+  <si>
+    <t>LSF</t>
+  </si>
+  <si>
+    <t>MINM</t>
+  </si>
+  <si>
+    <t>PIXY</t>
+  </si>
+  <si>
+    <t>HOLO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +55,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -58,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,19 +84,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -377,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,27 +439,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45244</v>
+      <c r="B4" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45364</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -22,19 +22,16 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>GXAI</t>
-  </si>
-  <si>
-    <t>LSF</t>
-  </si>
-  <si>
-    <t>MINM</t>
-  </si>
-  <si>
-    <t>PIXY</t>
-  </si>
-  <si>
-    <t>HOLO</t>
+    <t>CYTO</t>
+  </si>
+  <si>
+    <t>MLGO</t>
+  </si>
+  <si>
+    <t>FLGC</t>
+  </si>
+  <si>
+    <t>SMFL</t>
   </si>
 </sst>
 </file>
@@ -418,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>45364</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>45364</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>45364</v>
+        <v>45376</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,15 +464,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>45364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45364</v>
+        <v>45376</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -22,16 +22,16 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>CYTO</t>
-  </si>
-  <si>
-    <t>MLGO</t>
-  </si>
-  <si>
-    <t>FLGC</t>
-  </si>
-  <si>
-    <t>SMFL</t>
+    <t>OPGN</t>
+  </si>
+  <si>
+    <t>STOK</t>
+  </si>
+  <si>
+    <t>CHEK</t>
+  </si>
+  <si>
+    <t>ABVC</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +456,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>45376</v>
+        <v>45377</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -22,16 +22,40 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>OPGN</t>
-  </si>
-  <si>
-    <t>STOK</t>
-  </si>
-  <si>
-    <t>CHEK</t>
-  </si>
-  <si>
-    <t>ABVC</t>
+    <t>VSTE</t>
+  </si>
+  <si>
+    <t>MDIA</t>
+  </si>
+  <si>
+    <t>SGRP</t>
+  </si>
+  <si>
+    <t>XLO</t>
+  </si>
+  <si>
+    <t>MESO</t>
+  </si>
+  <si>
+    <t>CXAI</t>
+  </si>
+  <si>
+    <t>VVPR</t>
+  </si>
+  <si>
+    <t>AINC</t>
+  </si>
+  <si>
+    <t>XTIA</t>
+  </si>
+  <si>
+    <t>ADTX</t>
+  </si>
+  <si>
+    <t>PIK</t>
+  </si>
+  <si>
+    <t>LIFW</t>
   </si>
 </sst>
 </file>
@@ -415,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>45377</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +472,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>45377</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>45377</v>
+        <v>45383</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -464,7 +488,75 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>45377</v>
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>45384</v>
       </c>
     </row>
   </sheetData>

--- a/SourceDocuments/InPut_Excel/Watch_List.xlsx
+++ b/SourceDocuments/InPut_Excel/Watch_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -22,40 +22,19 @@
     <t>Symbol</t>
   </si>
   <si>
-    <t>VSTE</t>
-  </si>
-  <si>
-    <t>MDIA</t>
-  </si>
-  <si>
-    <t>SGRP</t>
-  </si>
-  <si>
-    <t>XLO</t>
-  </si>
-  <si>
-    <t>MESO</t>
-  </si>
-  <si>
-    <t>CXAI</t>
-  </si>
-  <si>
-    <t>VVPR</t>
-  </si>
-  <si>
-    <t>AINC</t>
-  </si>
-  <si>
-    <t>XTIA</t>
-  </si>
-  <si>
-    <t>ADTX</t>
-  </si>
-  <si>
-    <t>PIK</t>
-  </si>
-  <si>
-    <t>LIFW</t>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>AMZN</t>
+  </si>
+  <si>
+    <t>AAPL</t>
   </si>
 </sst>
 </file>
@@ -439,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,99 +443,39 @@
         <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>45383</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>45383</v>
+        <v>45475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>45384</v>
+        <v>45475</v>
       </c>
     </row>
   </sheetData>
